--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/42/word_level_predictions_42.xlsx
@@ -3553,11 +3553,11 @@
         </is>
       </c>
       <c r="I60" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K60" s="2" t="b">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G61" s="2" t="b">
@@ -3605,11 +3605,11 @@
         </is>
       </c>
       <c r="I61" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K61" s="2" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G62" s="2" t="b">
@@ -3657,11 +3657,11 @@
         </is>
       </c>
       <c r="I62" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K62" s="2" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -9261,81 +9261,81 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G170" t="b">
+        <v>1</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I170" t="b">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>6</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2.</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>31</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G170" t="b">
-        <v>1</v>
-      </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I170" t="b">
-        <v>1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K170" t="b">
-        <v>1</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C171" s="2" t="inlineStr">
-        <is>
-          <t>2.</t>
-        </is>
-      </c>
-      <c r="D171" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="E171" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F171" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G171" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L171" s="2" t="inlineStr">
+      <c r="G171" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" t="b">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_E</t>
         </is>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G172" s="2" t="b">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem5/42/word_level_predictions_42.xlsx
@@ -3553,11 +3553,11 @@
         </is>
       </c>
       <c r="I60" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K60" s="2" t="b">
@@ -3593,7 +3593,7 @@
       </c>
       <c r="F61" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G61" s="2" t="b">
@@ -3605,11 +3605,11 @@
         </is>
       </c>
       <c r="I61" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K61" s="2" t="b">
@@ -3617,7 +3617,7 @@
       </c>
       <c r="L61" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="F62" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G62" s="2" t="b">
@@ -3657,11 +3657,11 @@
         </is>
       </c>
       <c r="I62" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K62" s="2" t="b">
@@ -3669,7 +3669,7 @@
       </c>
       <c r="L62" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3709,11 +3709,11 @@
         </is>
       </c>
       <c r="I63" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K63" s="2" t="b">
@@ -3761,11 +3761,11 @@
         </is>
       </c>
       <c r="I64" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K64" s="2" t="b">
@@ -9261,7 +9261,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G170" t="b">
@@ -9285,57 +9285,57 @@
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
+      <c r="A171" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B171" s="2" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="C171" s="2" t="inlineStr">
         <is>
           <t>2.</t>
         </is>
       </c>
-      <c r="D171" t="n">
+      <c r="D171" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="E171" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="F171" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G171" t="b">
-        <v>1</v>
-      </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I171" t="b">
-        <v>1</v>
-      </c>
-      <c r="J171" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K171" t="b">
-        <v>1</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="G171" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L171" s="2" t="inlineStr">
         <is>
           <t>Wrong_Tag_B_as_E</t>
         </is>
@@ -9365,7 +9365,7 @@
       </c>
       <c r="F172" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G172" s="2" t="b">
@@ -9389,7 +9389,7 @@
       </c>
       <c r="L172" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
